--- a/dashboard_loader/indigenous_employment_uploader/indigenous_employment.xlsx
+++ b/dashboard_loader/indigenous_employment_uploader/indigenous_employment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">Another factor in the fall in the Indigenous employment rate is the gradual cessation of the Community Development Employment Projects (CDEP) over this period. The non-CDEP employment rate remained flat from 48.2 per cent in 2008 to 48.4 per cent in 2014-15.</t>
   </si>
   <si>
-    <t xml:space="preserve">New South Wales was the only jurisdiction that saw an improvement in the Indigenous employment rate between 2008 (47.3 per cent) and 2014-15 (53.1 per cent). New South Wales is the only jurisdiction on track with the target. Between 2008 and 2014-15, changes in employment rates in Victoria, South Australia, Tasmania and the Australian Capital Territory were not statistically significant.</t>
+    <t xml:space="preserve">New South Wales was the only jurisdiction that saw an improvement (albeit not significantly) in the Indigenous employment rate between 2008 (47.3 per cent) and 2014-15 (53.1 per cent). New South Wales is the only jurisdiction on track with the target. Between 2008 and 2014-15, changes in employment rates in Victoria, South Australia, Tasmania and the Australian Capital Territory were not statistically significant. </t>
   </si>
   <si>
     <t xml:space="preserve">In Queensland, Western Australia and the Northern Territory, employment rates decreased significantly between 2008 and 2014-15. However, interpretation of trends in Indigenous employment in these jurisdictions is affected by the decline in CDEP participants between 2008 and 2014-15. Between 2008 and 2014-15, there was no statistically significant change in the non-CDEP employment rate for these jurisdictions.</t>
@@ -139,6 +139,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -159,15 +160,17 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF00000A"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF00000A"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -296,15 +299,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -316,7 +319,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Microsoft Excel found an error in the formula you entered. Do you want to accept the correction proposed below?&#10;&#10;|&#10;&#10;• To accept the correction, click Yes.&#10;• To close this message and correct the formula yourself, click No. 16 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -388,15 +391,15 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,92 +890,92 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="105.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="104.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="11" t="n">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+    <row r="5" customFormat="false" ht="77.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+    <row r="6" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="s">
+    <row r="7" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+    <row r="8" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+      <c r="B8" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+    <row r="9" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="10" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/dashboard_loader/indigenous_employment_uploader/indigenous_employment.xlsx
+++ b/dashboard_loader/indigenous_employment_uploader/indigenous_employment.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t xml:space="preserve">Proportion of those aged 15-64 years employed, by jurisdiction and Indigenous status, 2008 to 2014-15</t>
   </si>
@@ -122,7 +122,13 @@
     <t xml:space="preserve">Although no progress has been made against the target since 2008, Indigenous employment rates were considerably higher in 2014-15 (48.4 per cent) than in 1994 (37.6 per cent). Participants in CDEP have historically been classified by the ABS as being employed. However, policy changes to cease non‑remote CDEP and introduce the Remote Jobs and Communities Programme in remote areas resulted in a large fall in the number of CDEP participants during this period. </t>
   </si>
   <si>
-    <t xml:space="preserve">Indigenous data sourced from the ABS National Aboriginal and Torres Strait Islander Social Survey (NATSISS) (2008 and 2014-15). Non-Indigenous data sourced from the ABS Survey of Education and Work (SEW) (2008 and 2014 ).</t>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indigenous data sourced from the ABS National Aboriginal and Torres Strait Islander Social Survey (NATSISS) (2008 and 2014-15).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Indigenous data sourced from the ABS Survey of Education and Work (SEW) (2008 and 2014 ).</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#\ ###\ ##0.0;\-#\ ###\ ##0.0;\–"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -155,6 +161,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -177,20 +264,77 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF00000A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -229,7 +373,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -253,6 +397,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -263,7 +455,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -271,23 +463,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,7 +487,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -307,34 +499,50 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF00000A"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -346,7 +554,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -362,7 +570,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -391,15 +599,15 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,17 +1096,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="104.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="104.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -966,10 +1174,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_loader/indigenous_employment_uploader/indigenous_employment.xlsx
+++ b/dashboard_loader/indigenous_employment_uploader/indigenous_employment.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t xml:space="preserve">Proportion of those aged 15-64 years employed, by jurisdiction and Indigenous status, 2008 to 2014-15</t>
   </si>
@@ -116,6 +116,9 @@
     <t xml:space="preserve">In Queensland, Western Australia and the Northern Territory, employment rates decreased significantly between 2008 and 2014-15. However, interpretation of trends in Indigenous employment in these jurisdictions is affected by the decline in CDEP participants between 2008 and 2014-15. Between 2008 and 2014-15, there was no statistically significant change in the non-CDEP employment rate for these jurisdictions.</t>
   </si>
   <si>
+    <t xml:space="preserve">State and Territory employment outcomes are influenced by economic circumstances both within their jurisdictions and across the nation. It should be noted that the Commonwealth has primary responsibility for national economic management and delivers labour market assistance to jobseekers.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
@@ -129,6 +132,12 @@
   </si>
   <si>
     <t xml:space="preserve">Non-Indigenous data sourced from the ABS Survey of Education and Work (SEW) (2008 and 2014 ).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAG Reform Council, Indigenous Reform 2012-13: Five years of performance, p. 68.</t>
   </si>
 </sst>
 </file>
@@ -450,7 +459,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -500,6 +509,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -606,7 +619,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.34"/>
   </cols>
   <sheetData>
@@ -1096,10 +1109,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1166,25 +1179,39 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+      <c r="B9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="12" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="12" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
